--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1491,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2851,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3076,7 +3076,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3132,7 +3132,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trainee\Desktop\Compliances\ComplianceAll\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayuri\Desktop\Compliance\AvacomAll\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,14 @@
     <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
     <sheet name="Sheet26" sheetId="28" r:id="rId26"/>
     <sheet name="Sheet29" sheetId="29" r:id="rId27"/>
+    <sheet name="Sheet27" sheetId="30" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="193">
   <si>
     <t>URL</t>
   </si>
@@ -68,24 +69,15 @@
     <t>Task Title*</t>
   </si>
   <si>
-    <t>New2226</t>
-  </si>
-  <si>
     <t>Task Description</t>
   </si>
   <si>
-    <t>Description4444</t>
-  </si>
-  <si>
     <t>Due Day</t>
   </si>
   <si>
     <t>condition message</t>
   </si>
   <si>
-    <t>wwu</t>
-  </si>
-  <si>
     <t>Yess message</t>
   </si>
   <si>
@@ -236,9 +228,6 @@
     <t>Tech22</t>
   </si>
   <si>
-    <t>XXXXX</t>
-  </si>
-  <si>
     <t>ABCDDD</t>
   </si>
   <si>
@@ -281,28 +270,7 @@
     <t>mgmt@avantis.info</t>
   </si>
   <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>ee2</t>
-  </si>
-  <si>
     <t>updatedTaskTitle</t>
-  </si>
-  <si>
-    <t>AutomationMgmtA</t>
-  </si>
-  <si>
-    <t>aaa23422</t>
-  </si>
-  <si>
-    <t>New14545</t>
-  </si>
-  <si>
-    <t>New Task  Description41211231</t>
-  </si>
-  <si>
-    <t>Automate11</t>
   </si>
   <si>
     <t xml:space="preserve"> Sub Task</t>
@@ -599,12 +567,117 @@
   <si>
     <t>name Update</t>
   </si>
+  <si>
+    <t>DIY</t>
+  </si>
+  <si>
+    <t>Department Head</t>
+  </si>
+  <si>
+    <t>admin.department@avantis.info</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>mgmt@gmail.com</t>
+  </si>
+  <si>
+    <t>Satutory</t>
+  </si>
+  <si>
+    <t>avantis@111</t>
+  </si>
+  <si>
+    <t>ddd@gmail.com</t>
+  </si>
+  <si>
+    <t>Bita</t>
+  </si>
+  <si>
+    <t>rahul@tlregtech.com</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>approver123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My workspace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">License -Back Button , Edit </t>
+  </si>
+  <si>
+    <t>CheckList - Product Mapping Page</t>
+  </si>
+  <si>
+    <t>Manage user -IP Address -Sample Format</t>
+  </si>
+  <si>
+    <t>Report -Data not load</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>New14543</t>
+  </si>
+  <si>
+    <t>New Task  Description41211227</t>
+  </si>
+  <si>
+    <t>New2165</t>
+  </si>
+  <si>
+    <t>Description4624</t>
+  </si>
+  <si>
+    <t>ASDW</t>
+  </si>
+  <si>
+    <t>wtuV</t>
+  </si>
+  <si>
+    <t>AutomationMgmtAQ</t>
+  </si>
+  <si>
+    <t>aaa25425</t>
+  </si>
+  <si>
+    <t>er3</t>
+  </si>
+  <si>
+    <t>Automate17</t>
+  </si>
+  <si>
+    <t>rahul11@avantis.info</t>
+  </si>
+  <si>
+    <t>Masters-Compliance Type</t>
+  </si>
+  <si>
+    <t>ComplianceType12</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>ComType</t>
+  </si>
+  <si>
+    <t>Act Group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,23 +770,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,7 +899,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,8 +918,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -824,52 +933,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEDFDE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEDFDE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEDFDE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEDFDE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1189,29 +1326,29 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1219,96 +1356,96 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1349,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1396,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1420,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1443,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1451,26 +1588,26 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1492,7 +1629,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1514,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1527,66 +1664,66 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>164</v>
+        <v>137</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>7703988712</v>
@@ -1594,15 +1731,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1622,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1635,23 +1772,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1660,23 +1797,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>9561456772</v>
@@ -1684,110 +1821,110 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>7703988712</v>
@@ -1795,110 +1932,139 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
-        <v>96</v>
+      <c r="A23" s="40" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>105</v>
+      <c r="A24" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>106</v>
+        <v>86</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
-        <v>98</v>
+      <c r="A26" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
-        <v>99</v>
+      <c r="A27" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
-        <v>113</v>
+      <c r="A32" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>117</v>
+        <v>52</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1960,20 +2126,20 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1981,52 +2147,52 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2034,42 +2200,42 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2107,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2115,15 +2281,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>112</v>
+      <c r="A10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2163,15 +2329,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>121</v>
+      <c r="B3" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2211,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2251,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2259,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2272,12 +2438,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2462,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2318,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2346,15 +2512,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2394,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2434,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2442,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2463,7 +2629,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2473,23 +2639,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2497,11 +2663,11 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
-        <v>130</v>
+      <c r="A4" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2531,23 +2697,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2555,135 +2721,143 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
-        <v>136</v>
+      <c r="A4" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
       <c r="A5" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>134</v>
+        <v>124</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>138</v>
+      <c r="A6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>140</v>
+      <c r="A7" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="23" t="s">
-        <v>141</v>
+      <c r="A8" s="22" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>143</v>
+        <v>131</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>144</v>
+      <c r="A10" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>146</v>
+      <c r="A11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="24"/>
+      <c r="A12" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>150</v>
+      <c r="A14" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>152</v>
+      <c r="A15" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
-        <v>156</v>
+      <c r="A16" s="28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>157</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>158</v>
+      <c r="A18" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="32">
+      <c r="A20" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="31">
         <v>45264</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="17"/>
+      <c r="A21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="17"/>
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2715,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2723,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2757,23 +2931,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2815,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2837,12 +3011,127 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2851,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2874,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2882,7 +3171,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2903,7 +3192,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2925,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2951,7 +3240,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2972,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2980,12 +3269,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3000,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3025,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3038,25 +3327,30 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="17" t="s">
-        <v>163</v>
+      <c r="B10" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3358,7 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3076,7 +3370,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3098,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3111,10 +3405,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3132,7 +3426,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3154,7 +3448,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3167,16 +3461,16 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3210,7 +3504,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3218,15 +3512,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
